--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2023     " sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES  FEBRERO  2023" sheetId="3" r:id="rId2"/>
     <sheet name="   REMISIONES     MARZO   2023 " sheetId="4" r:id="rId3"/>
     <sheet name=" REMISIONES   ABRIL  2023    " sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
+    <sheet name="   REMISIONES   MAYO   2023    " sheetId="6" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="8" r:id="rId6"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="99">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>28-Abr-23--29-Abr-23</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE    MAYO      2 0 2 3</t>
+  </si>
+  <si>
+    <t>2-May-23--5-May-23</t>
+  </si>
+  <si>
+    <t>5-May-23--</t>
+  </si>
+  <si>
+    <t>5-May-23--6-May-23</t>
   </si>
 </sst>
 </file>
@@ -683,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,6 +917,12 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -915,6 +933,7 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFCC"/>
@@ -1375,6 +1394,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="25627015"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="25674642"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -9192,10 +9322,10 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10494,11 +10624,15 @@
       <c r="E51" s="22">
         <v>870</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="32"/>
+      <c r="F51" s="67">
+        <v>45053</v>
+      </c>
+      <c r="G51" s="68">
+        <v>870</v>
+      </c>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10959,11 +11093,15 @@
       <c r="E69" s="22">
         <v>11080</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="32"/>
+      <c r="F69" s="67">
+        <v>45053</v>
+      </c>
+      <c r="G69" s="68">
+        <v>11080</v>
+      </c>
       <c r="H69" s="20">
         <f t="shared" si="0"/>
-        <v>11080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11174,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="73">
         <v>45048</v>
       </c>
@@ -11189,15 +11327,16 @@
       <c r="E78" s="22">
         <v>970</v>
       </c>
-      <c r="F78" s="74">
-        <v>45048</v>
-      </c>
-      <c r="G78" s="75">
-        <v>700</v>
+      <c r="F78" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="68">
+        <f>700+270</f>
+        <v>970</v>
       </c>
       <c r="H78" s="20">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11267,11 +11406,16 @@
       <c r="E81" s="22">
         <v>10844</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="20">
-        <f t="shared" si="0"/>
-        <v>10844</v>
+      <c r="F81" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" s="87">
+        <f>8000</f>
+        <v>8000</v>
+      </c>
+      <c r="H81" s="88">
+        <f t="shared" si="0"/>
+        <v>2844</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11341,11 +11485,15 @@
       <c r="E84" s="22">
         <v>289</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="32"/>
+      <c r="F84" s="67">
+        <v>45051</v>
+      </c>
+      <c r="G84" s="68">
+        <v>289</v>
+      </c>
       <c r="H84" s="20">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11363,11 +11511,15 @@
       <c r="E85" s="22">
         <v>1400</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="32"/>
+      <c r="F85" s="67">
+        <v>45051</v>
+      </c>
+      <c r="G85" s="68">
+        <v>1400</v>
+      </c>
       <c r="H85" s="20">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11385,11 +11537,15 @@
       <c r="E86" s="22">
         <v>2264</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="32"/>
+      <c r="F86" s="67">
+        <v>45051</v>
+      </c>
+      <c r="G86" s="68">
+        <v>2264</v>
+      </c>
       <c r="H86" s="20">
         <f t="shared" si="0"/>
-        <v>2264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11407,11 +11563,15 @@
       <c r="E87" s="22">
         <v>1242</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="32"/>
+      <c r="F87" s="67">
+        <v>45051</v>
+      </c>
+      <c r="G87" s="68">
+        <v>1242</v>
+      </c>
       <c r="H87" s="20">
         <f t="shared" si="0"/>
-        <v>1242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11477,11 +11637,11 @@
       <c r="F92" s="47"/>
       <c r="G92" s="47">
         <f>SUM(G4:G91)</f>
-        <v>246792</v>
+        <v>272207</v>
       </c>
       <c r="H92" s="48">
         <f>SUM(H4:H91)</f>
-        <v>28259</v>
+        <v>2844</v>
       </c>
       <c r="I92" s="3"/>
     </row>
@@ -11525,7 +11685,1740 @@
       <c r="D96" s="3"/>
       <c r="E96" s="83">
         <f>E92-G92</f>
-        <v>28259</v>
+        <v>2844</v>
+      </c>
+      <c r="F96" s="84"/>
+      <c r="G96" s="85"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="64"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="64"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="24"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="65"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="64"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="44"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="64"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="64"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="64"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="64"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="64"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="64"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="64"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="64"/>
+      <c r="I109" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E98:G98"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="A1:I109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="18" style="66" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>45051</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1306</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="18">
+        <v>3887</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="62">
+        <f>2500+1387</f>
+        <v>3887</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H91" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>45051</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1307</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="90">
+        <v>969</v>
+      </c>
+      <c r="F5" s="23">
+        <v>45052</v>
+      </c>
+      <c r="G5" s="32">
+        <v>969</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>45051</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>1308</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3377</v>
+      </c>
+      <c r="F6" s="23">
+        <v>45052</v>
+      </c>
+      <c r="G6" s="32">
+        <v>3377</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>45051</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>1309</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="22">
+        <v>11520</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>45051</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>1310</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="22">
+        <v>12100</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>45052</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>1311</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1758</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>45052</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>1312</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3478</v>
+      </c>
+      <c r="F10" s="23">
+        <v>45053</v>
+      </c>
+      <c r="G10" s="32">
+        <v>3478</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>45052</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>1313</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="22">
+        <v>22218</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>22218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>1314</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>1315</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>1316</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>1317</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>1318</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>1319</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>1321</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>1322</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>1323</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>1324</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>1325</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>1326</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>1327</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>1328</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>1329</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70">
+        <f t="shared" si="1"/>
+        <v>1331</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="70">
+        <f t="shared" si="1"/>
+        <v>1332</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70">
+        <f t="shared" si="1"/>
+        <v>1333</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70">
+        <f t="shared" si="1"/>
+        <v>1334</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70">
+        <f t="shared" si="1"/>
+        <v>1335</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70">
+        <f t="shared" si="1"/>
+        <v>1336</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70">
+        <f t="shared" si="1"/>
+        <v>1337</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="70">
+        <f t="shared" si="1"/>
+        <v>1338</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="70">
+        <f t="shared" si="1"/>
+        <v>1339</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70">
+        <f t="shared" si="1"/>
+        <v>1340</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="70">
+        <f t="shared" si="1"/>
+        <v>1341</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70">
+        <f t="shared" si="1"/>
+        <v>1342</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="70">
+        <f t="shared" si="1"/>
+        <v>1343</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="69"/>
+      <c r="B42" s="70">
+        <f t="shared" si="1"/>
+        <v>1344</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="69"/>
+      <c r="B43" s="70">
+        <f t="shared" si="1"/>
+        <v>1345</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+      <c r="B44" s="70">
+        <f t="shared" si="1"/>
+        <v>1346</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+      <c r="B45" s="70">
+        <f t="shared" si="1"/>
+        <v>1347</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+      <c r="B46" s="70">
+        <f t="shared" si="1"/>
+        <v>1348</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="70">
+        <f t="shared" si="1"/>
+        <v>1349</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="70">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="C48" s="71"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70">
+        <f t="shared" si="1"/>
+        <v>1351</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+      <c r="B50" s="70">
+        <f t="shared" si="1"/>
+        <v>1352</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="70">
+        <f t="shared" si="1"/>
+        <v>1353</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+      <c r="B52" s="70">
+        <f t="shared" si="1"/>
+        <v>1354</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70">
+        <f t="shared" si="1"/>
+        <v>1355</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="69"/>
+      <c r="B54" s="70">
+        <f t="shared" si="1"/>
+        <v>1356</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="70">
+        <f t="shared" si="1"/>
+        <v>1357</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+      <c r="B56" s="70">
+        <f t="shared" si="1"/>
+        <v>1358</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+      <c r="B57" s="70">
+        <f t="shared" si="1"/>
+        <v>1359</v>
+      </c>
+      <c r="C57" s="71"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="69"/>
+      <c r="B58" s="70">
+        <f t="shared" si="1"/>
+        <v>1360</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="69"/>
+      <c r="B59" s="70">
+        <f t="shared" si="1"/>
+        <v>1361</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+      <c r="B60" s="70">
+        <f t="shared" si="1"/>
+        <v>1362</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="70">
+        <f t="shared" si="1"/>
+        <v>1363</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="69"/>
+      <c r="B62" s="70">
+        <f t="shared" si="1"/>
+        <v>1364</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="69"/>
+      <c r="B63" s="70">
+        <f t="shared" si="1"/>
+        <v>1365</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
+      <c r="B64" s="70">
+        <f t="shared" si="1"/>
+        <v>1366</v>
+      </c>
+      <c r="C64" s="71"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73"/>
+      <c r="B65" s="70">
+        <f t="shared" si="1"/>
+        <v>1367</v>
+      </c>
+      <c r="C65" s="71"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="70">
+        <f t="shared" si="1"/>
+        <v>1368</v>
+      </c>
+      <c r="C66" s="71"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="70">
+        <f t="shared" si="1"/>
+        <v>1369</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="70">
+        <f t="shared" si="1"/>
+        <v>1370</v>
+      </c>
+      <c r="C68" s="71"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="73"/>
+      <c r="B69" s="70">
+        <f t="shared" si="1"/>
+        <v>1371</v>
+      </c>
+      <c r="C69" s="71"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="70">
+        <f t="shared" ref="B70:B87" si="2">B69+1</f>
+        <v>1372</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="70">
+        <f t="shared" si="2"/>
+        <v>1373</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="73"/>
+      <c r="B72" s="70">
+        <f t="shared" si="2"/>
+        <v>1374</v>
+      </c>
+      <c r="C72" s="71"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="70">
+        <f t="shared" si="2"/>
+        <v>1375</v>
+      </c>
+      <c r="C73" s="71"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="73"/>
+      <c r="B74" s="70">
+        <f t="shared" si="2"/>
+        <v>1376</v>
+      </c>
+      <c r="C74" s="71"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="73"/>
+      <c r="B75" s="70">
+        <f t="shared" si="2"/>
+        <v>1377</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73"/>
+      <c r="B76" s="70">
+        <f t="shared" si="2"/>
+        <v>1378</v>
+      </c>
+      <c r="C76" s="71"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="73"/>
+      <c r="B77" s="70">
+        <f t="shared" si="2"/>
+        <v>1379</v>
+      </c>
+      <c r="C77" s="71"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="70">
+        <f t="shared" si="2"/>
+        <v>1380</v>
+      </c>
+      <c r="C78" s="71"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="73"/>
+      <c r="B79" s="70">
+        <f t="shared" si="2"/>
+        <v>1381</v>
+      </c>
+      <c r="C79" s="71"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="73"/>
+      <c r="B80" s="70">
+        <f t="shared" si="2"/>
+        <v>1382</v>
+      </c>
+      <c r="C80" s="71"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="73"/>
+      <c r="B81" s="70">
+        <f t="shared" si="2"/>
+        <v>1383</v>
+      </c>
+      <c r="C81" s="71"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73"/>
+      <c r="B82" s="70">
+        <f t="shared" si="2"/>
+        <v>1384</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73"/>
+      <c r="B83" s="70">
+        <f t="shared" si="2"/>
+        <v>1385</v>
+      </c>
+      <c r="C83" s="71"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73"/>
+      <c r="B84" s="70">
+        <f t="shared" si="2"/>
+        <v>1386</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73"/>
+      <c r="B85" s="70">
+        <f t="shared" si="2"/>
+        <v>1387</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73"/>
+      <c r="B86" s="70">
+        <f t="shared" si="2"/>
+        <v>1388</v>
+      </c>
+      <c r="C86" s="71"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73"/>
+      <c r="B87" s="70">
+        <f t="shared" si="2"/>
+        <v>1389</v>
+      </c>
+      <c r="C87" s="71"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="73"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="73"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="46">
+        <f>SUM(E4:E91)</f>
+        <v>59307</v>
+      </c>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47">
+        <f>SUM(G4:G91)</f>
+        <v>11711</v>
+      </c>
+      <c r="H92" s="48">
+        <f>SUM(H4:H91)</f>
+        <v>47596</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="50"/>
+      <c r="G94" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="51"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="83">
+        <f>E92-G92</f>
+        <v>47596</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="85"/>
@@ -11663,23 +13556,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="108">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -323,10 +323,37 @@
     <t>2-May-23--5-May-23</t>
   </si>
   <si>
-    <t>5-May-23--</t>
+    <t>5-May-23--6-May-23</t>
   </si>
   <si>
-    <t>5-May-23--6-May-23</t>
+    <t>5-May-23--8-May-23</t>
+  </si>
+  <si>
+    <t>8-May-23--10-May-23</t>
+  </si>
+  <si>
+    <t>11-May-23--13-May-23</t>
+  </si>
+  <si>
+    <t>12-May-23--14-May-23</t>
+  </si>
+  <si>
+    <t>15-May-23--16-May-23</t>
+  </si>
+  <si>
+    <t>14-May-23--16-May-23--</t>
+  </si>
+  <si>
+    <t>16-May-23--17-May-23</t>
+  </si>
+  <si>
+    <t>18-May-23--19-May-23</t>
+  </si>
+  <si>
+    <t>17-May-23--19-May-23</t>
+  </si>
+  <si>
+    <t>19-May-23--</t>
   </si>
 </sst>
 </file>
@@ -695,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,6 +920,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,12 +946,7 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1794,25 +1818,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3835,12 +3859,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="83">
+      <c r="E84" s="85">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="84"/>
-      <c r="G84" s="85"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="87"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3856,11 +3880,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="86" t="s">
+      <c r="E86" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="88"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,25 +4027,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6443,12 +6467,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="83">
+      <c r="E98" s="85">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="84"/>
-      <c r="G98" s="85"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="87"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6464,11 +6488,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="86" t="s">
+      <c r="E100" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="86"/>
-      <c r="G100" s="86"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="88"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6614,25 +6638,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -9173,12 +9197,12 @@
       <c r="B102" s="44"/>
       <c r="C102" s="45"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="83">
+      <c r="E102" s="85">
         <f>E98-G98</f>
         <v>0</v>
       </c>
-      <c r="F102" s="84"/>
-      <c r="G102" s="85"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="87"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -9194,11 +9218,11 @@
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="86" t="s">
+      <c r="E104" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -9322,10 +9346,10 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9344,25 +9368,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -11391,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="73">
         <v>45048</v>
       </c>
@@ -11407,15 +11431,15 @@
         <v>10844</v>
       </c>
       <c r="F81" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" s="87">
-        <f>8000</f>
-        <v>8000</v>
-      </c>
-      <c r="H81" s="88">
-        <f t="shared" si="0"/>
-        <v>2844</v>
+        <v>98</v>
+      </c>
+      <c r="G81" s="68">
+        <f>8000+2844</f>
+        <v>10844</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11637,11 +11661,11 @@
       <c r="F92" s="47"/>
       <c r="G92" s="47">
         <f>SUM(G4:G91)</f>
-        <v>272207</v>
+        <v>275051</v>
       </c>
       <c r="H92" s="48">
         <f>SUM(H4:H91)</f>
-        <v>2844</v>
+        <v>0</v>
       </c>
       <c r="I92" s="3"/>
     </row>
@@ -11683,12 +11707,12 @@
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="83">
+      <c r="E96" s="85">
         <f>E92-G92</f>
-        <v>2844</v>
-      </c>
-      <c r="F96" s="84"/>
-      <c r="G96" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="86"/>
+      <c r="G96" s="87"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -11704,11 +11728,11 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="86" t="s">
+      <c r="E98" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="88"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -11832,7 +11856,8 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11851,25 +11876,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -11914,7 +11939,7 @@
         <v>3887</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="62">
         <f>2500+1387</f>
@@ -11934,10 +11959,10 @@
         <v>1307</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="80">
         <v>969</v>
       </c>
       <c r="F5" s="23">
@@ -11992,11 +12017,15 @@
       <c r="E7" s="22">
         <v>11520</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="23">
+        <v>45060</v>
+      </c>
+      <c r="G7" s="32">
+        <v>11520</v>
+      </c>
       <c r="H7" s="20">
         <f t="shared" si="0"/>
-        <v>11520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -12014,11 +12043,15 @@
       <c r="E8" s="22">
         <v>12100</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="23">
+        <v>45054</v>
+      </c>
+      <c r="G8" s="32">
+        <v>12100</v>
+      </c>
       <c r="H8" s="20">
         <f t="shared" si="0"/>
-        <v>12100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12036,11 +12069,15 @@
       <c r="E9" s="22">
         <v>1758</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="23">
+        <v>45054</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1758</v>
+      </c>
       <c r="H9" s="20">
         <f t="shared" si="0"/>
-        <v>1758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -12084,342 +12121,544 @@
       <c r="E11" s="22">
         <v>22218</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="32"/>
+      <c r="F11" s="23">
+        <v>45056</v>
+      </c>
+      <c r="G11" s="32">
+        <v>22218</v>
+      </c>
       <c r="H11" s="20">
         <f t="shared" si="0"/>
-        <v>22218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>45053</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>1314</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="32"/>
+      <c r="D12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3990</v>
+      </c>
+      <c r="F12" s="23">
+        <v>45054</v>
+      </c>
+      <c r="G12" s="32">
+        <v>3990</v>
+      </c>
       <c r="H12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>45053</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>1315</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="22">
+        <v>3430</v>
+      </c>
       <c r="F13" s="23"/>
       <c r="G13" s="32"/>
       <c r="H13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>45054</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>1316</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="22">
+        <v>9577</v>
+      </c>
+      <c r="F14" s="23">
+        <v>45059</v>
+      </c>
+      <c r="G14" s="32">
+        <v>9577</v>
+      </c>
       <c r="H14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>45054</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>1317</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3732</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="32">
+        <f>2532+1200</f>
+        <v>3732</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>45054</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>1318</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1160</v>
+      </c>
+      <c r="F16" s="23">
+        <v>45055</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1160</v>
+      </c>
       <c r="H16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>45054</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>1319</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="22">
+        <v>5289</v>
+      </c>
+      <c r="F17" s="23">
+        <v>45056</v>
+      </c>
+      <c r="G17" s="32">
+        <v>5289</v>
+      </c>
       <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>45055</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1572</v>
+      </c>
+      <c r="F18" s="23">
+        <v>45056</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1572</v>
+      </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>45056</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>1321</v>
       </c>
       <c r="C19" s="27"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="32"/>
+      <c r="D19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1590</v>
+      </c>
+      <c r="F19" s="23">
+        <v>45057</v>
+      </c>
+      <c r="G19" s="32">
+        <v>1590</v>
+      </c>
       <c r="H19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>45056</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>1322</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="32"/>
+      <c r="D20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="22">
+        <v>3370</v>
+      </c>
+      <c r="F20" s="23">
+        <v>45057</v>
+      </c>
+      <c r="G20" s="32">
+        <v>3370</v>
+      </c>
       <c r="H20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>45057</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>1323</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="32"/>
+      <c r="D21" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="22">
+        <v>9414</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="32">
+        <f>2200+7214</f>
+        <v>9414</v>
+      </c>
       <c r="H21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>45057</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>1324</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="32"/>
+      <c r="D22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1245</v>
+      </c>
+      <c r="F22" s="23">
+        <v>45058</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1245</v>
+      </c>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>45057</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>1325</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="32"/>
+      <c r="D23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="22">
+        <v>2637</v>
+      </c>
+      <c r="F23" s="23">
+        <v>45058</v>
+      </c>
+      <c r="G23" s="32">
+        <v>2637</v>
+      </c>
       <c r="H23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>45058</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>1326</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="32"/>
+      <c r="D24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3612</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="32">
+        <f>3112+500</f>
+        <v>3612</v>
+      </c>
       <c r="H24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>45058</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>1327</v>
       </c>
       <c r="C25" s="26"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="32"/>
+      <c r="D25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1569</v>
+      </c>
+      <c r="F25" s="23">
+        <v>45059</v>
+      </c>
+      <c r="G25" s="32">
+        <v>1569</v>
+      </c>
       <c r="H25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>45058</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>1328</v>
       </c>
       <c r="C26" s="26"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="32"/>
+      <c r="D26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="22">
+        <v>4167</v>
+      </c>
+      <c r="F26" s="23">
+        <v>45059</v>
+      </c>
+      <c r="G26" s="32">
+        <v>4167</v>
+      </c>
       <c r="H26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>45058</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>1329</v>
       </c>
       <c r="C27" s="26"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="22">
+        <v>6380</v>
+      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="32"/>
       <c r="H27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>45058</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>1330</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="D28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="22">
+        <v>6380</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="32"/>
       <c r="H28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
+        <v>45058</v>
+      </c>
       <c r="B29" s="70">
         <f t="shared" si="1"/>
         <v>1331</v>
       </c>
       <c r="C29" s="71"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="22">
+        <v>12760</v>
+      </c>
+      <c r="F29" s="23">
+        <v>45061</v>
+      </c>
+      <c r="G29" s="32">
+        <v>12760</v>
+      </c>
       <c r="H29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+    <row r="30" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
+        <v>45058</v>
+      </c>
       <c r="B30" s="70">
         <f t="shared" si="1"/>
         <v>1332</v>
       </c>
       <c r="C30" s="71"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="32"/>
+      <c r="D30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="22">
+        <v>7155</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="75">
+        <f>2500+4055</f>
+        <v>6555</v>
+      </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69">
+        <v>45059</v>
+      </c>
       <c r="B31" s="70">
         <f t="shared" si="1"/>
         <v>1333</v>
       </c>
       <c r="C31" s="71"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="32"/>
+      <c r="D31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="22">
+        <v>388</v>
+      </c>
+      <c r="F31" s="23">
+        <v>45062</v>
+      </c>
+      <c r="G31" s="32">
+        <v>388</v>
+      </c>
       <c r="H31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="69">
+        <v>45059</v>
+      </c>
       <c r="B32" s="70">
         <f t="shared" si="1"/>
         <v>1334</v>
       </c>
       <c r="C32" s="71"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
+      <c r="D32" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
       <c r="F32" s="23"/>
       <c r="G32" s="32"/>
       <c r="H32" s="20">
@@ -12427,276 +12666,435 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+    <row r="33" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69">
+        <v>45059</v>
+      </c>
       <c r="B33" s="70">
         <f t="shared" si="1"/>
         <v>1335</v>
       </c>
       <c r="C33" s="71"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="32"/>
+      <c r="D33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22">
+        <v>4416</v>
+      </c>
+      <c r="F33" s="23">
+        <v>45060</v>
+      </c>
+      <c r="G33" s="32">
+        <v>4416</v>
+      </c>
       <c r="H33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+    <row r="34" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69">
+        <v>45059</v>
+      </c>
       <c r="B34" s="70">
         <f t="shared" si="1"/>
         <v>1336</v>
       </c>
       <c r="C34" s="71"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="32"/>
+      <c r="D34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="22">
+        <v>2034</v>
+      </c>
+      <c r="F34" s="23">
+        <v>45060</v>
+      </c>
+      <c r="G34" s="32">
+        <v>2034</v>
+      </c>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
+    <row r="35" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69">
+        <v>45060</v>
+      </c>
       <c r="B35" s="70">
         <f t="shared" si="1"/>
         <v>1337</v>
       </c>
       <c r="C35" s="71"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="32"/>
+      <c r="D35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2457</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="32">
+        <f>2000+457</f>
+        <v>2457</v>
+      </c>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+    <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
+        <v>45060</v>
+      </c>
       <c r="B36" s="70">
         <f t="shared" si="1"/>
         <v>1338</v>
       </c>
       <c r="C36" s="71"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="22">
+        <v>3919</v>
+      </c>
+      <c r="F36" s="23">
+        <v>45061</v>
+      </c>
+      <c r="G36" s="32">
+        <v>3919</v>
+      </c>
       <c r="H36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="69">
+        <v>45061</v>
+      </c>
       <c r="B37" s="70">
         <f t="shared" si="1"/>
         <v>1339</v>
       </c>
       <c r="C37" s="71"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="32"/>
+      <c r="D37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="22">
+        <v>885</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="32">
+        <f>500+385</f>
+        <v>885</v>
+      </c>
       <c r="H37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
+        <v>45061</v>
+      </c>
       <c r="B38" s="70">
         <f t="shared" si="1"/>
         <v>1340</v>
       </c>
       <c r="C38" s="71"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="32"/>
+      <c r="D38" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="22">
+        <v>974</v>
+      </c>
+      <c r="F38" s="23">
+        <v>45062</v>
+      </c>
+      <c r="G38" s="32">
+        <v>974</v>
+      </c>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+    <row r="39" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="69">
+        <v>45061</v>
+      </c>
       <c r="B39" s="70">
         <f t="shared" si="1"/>
         <v>1341</v>
       </c>
       <c r="C39" s="71"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="32"/>
+      <c r="D39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="22">
+        <v>2530</v>
+      </c>
+      <c r="F39" s="23">
+        <v>45062</v>
+      </c>
+      <c r="G39" s="32">
+        <v>2530</v>
+      </c>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
+        <v>45062</v>
+      </c>
       <c r="B40" s="70">
         <f t="shared" si="1"/>
         <v>1342</v>
       </c>
       <c r="C40" s="71"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="32"/>
+      <c r="D40" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1525</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="32">
+        <f>1500+25</f>
+        <v>1525</v>
+      </c>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+    <row r="41" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="69">
+        <v>45062</v>
+      </c>
       <c r="B41" s="70">
         <f t="shared" si="1"/>
         <v>1343</v>
       </c>
       <c r="C41" s="71"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="32"/>
+      <c r="D41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2567</v>
+      </c>
+      <c r="F41" s="23">
+        <v>45065</v>
+      </c>
+      <c r="G41" s="32">
+        <v>2567</v>
+      </c>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
+    <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="69">
+        <v>45063</v>
+      </c>
       <c r="B42" s="70">
         <f t="shared" si="1"/>
         <v>1344</v>
       </c>
       <c r="C42" s="71"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="32"/>
+      <c r="D42" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="22">
+        <v>3994</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="32">
+        <f>3600+394</f>
+        <v>3994</v>
+      </c>
       <c r="H42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
+    <row r="43" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="69">
+        <v>45064</v>
+      </c>
       <c r="B43" s="70">
         <f t="shared" si="1"/>
         <v>1345</v>
       </c>
       <c r="C43" s="71"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="22">
+        <v>2291</v>
+      </c>
+      <c r="F43" s="23">
+        <v>45065</v>
+      </c>
+      <c r="G43" s="32">
+        <v>2291</v>
+      </c>
       <c r="H43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+    <row r="44" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
+        <v>45064</v>
+      </c>
       <c r="B44" s="70">
         <f t="shared" si="1"/>
         <v>1346</v>
       </c>
       <c r="C44" s="71"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="22">
+        <v>1937</v>
+      </c>
+      <c r="F44" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="75">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="69">
+        <v>45064</v>
+      </c>
       <c r="B45" s="70">
         <f t="shared" si="1"/>
         <v>1347</v>
       </c>
       <c r="C45" s="71"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="22">
+        <v>486</v>
+      </c>
+      <c r="F45" s="23">
+        <v>45065</v>
+      </c>
+      <c r="G45" s="32">
+        <v>486</v>
+      </c>
       <c r="H45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="69">
+        <v>45065</v>
+      </c>
       <c r="B46" s="70">
         <f t="shared" si="1"/>
         <v>1348</v>
       </c>
       <c r="C46" s="71"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
+      <c r="D46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1779</v>
+      </c>
       <c r="F46" s="23"/>
       <c r="G46" s="32"/>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="69">
+        <v>45065</v>
+      </c>
       <c r="B47" s="70">
         <f t="shared" si="1"/>
         <v>1349</v>
       </c>
       <c r="C47" s="71"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
+      <c r="D47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="22">
+        <v>4691</v>
+      </c>
       <c r="F47" s="23"/>
       <c r="G47" s="32"/>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="A48" s="69">
+        <v>45065</v>
+      </c>
       <c r="B48" s="70">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
+      <c r="D48" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="22">
+        <v>13014</v>
+      </c>
       <c r="F48" s="23"/>
       <c r="G48" s="32"/>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13014</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A49" s="69">
+        <v>45065</v>
+      </c>
       <c r="B49" s="70">
         <f t="shared" si="1"/>
         <v>1351</v>
       </c>
       <c r="C49" s="71"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
+      <c r="D49" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="22">
+        <v>12000</v>
+      </c>
       <c r="F49" s="23"/>
       <c r="G49" s="32"/>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13365,16 +13763,16 @@
       <c r="D92" s="3"/>
       <c r="E92" s="46">
         <f>SUM(E4:E91)</f>
-        <v>59307</v>
+        <v>210223</v>
       </c>
       <c r="F92" s="47"/>
       <c r="G92" s="47">
         <f>SUM(G4:G91)</f>
-        <v>11711</v>
+        <v>161012</v>
       </c>
       <c r="H92" s="48">
         <f>SUM(H4:H91)</f>
-        <v>47596</v>
+        <v>49211</v>
       </c>
       <c r="I92" s="3"/>
     </row>
@@ -13416,12 +13814,12 @@
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="83">
+      <c r="E96" s="85">
         <f>E92-G92</f>
-        <v>47596</v>
-      </c>
-      <c r="F96" s="84"/>
-      <c r="G96" s="85"/>
+        <v>49211</v>
+      </c>
+      <c r="F96" s="86"/>
+      <c r="G96" s="87"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -13437,11 +13835,11 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="86" t="s">
+      <c r="E98" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="88"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -13552,7 +13950,8 @@
     <mergeCell ref="E98:G98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="110">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -341,9 +341,6 @@
     <t>15-May-23--16-May-23</t>
   </si>
   <si>
-    <t>14-May-23--16-May-23--</t>
-  </si>
-  <si>
     <t>16-May-23--17-May-23</t>
   </si>
   <si>
@@ -353,7 +350,16 @@
     <t>17-May-23--19-May-23</t>
   </si>
   <si>
-    <t>19-May-23--</t>
+    <t>19-May-23--20-May-23</t>
+  </si>
+  <si>
+    <t>14-May-23--16-May-23--21-May-23</t>
+  </si>
+  <si>
+    <t>20-May-23--21-May-23</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
   </si>
 </sst>
 </file>
@@ -922,6 +928,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,7 +953,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1818,25 +1824,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3859,12 +3865,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="85">
+      <c r="E84" s="86">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="86"/>
-      <c r="G84" s="87"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="88"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3880,11 +3886,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="88" t="s">
+      <c r="E86" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="88"/>
-      <c r="G86" s="88"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="89"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4027,25 +4033,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6467,12 +6473,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="85">
+      <c r="E98" s="86">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="86"/>
-      <c r="G98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="88"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6488,11 +6494,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="88" t="s">
+      <c r="E100" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="88"/>
-      <c r="G100" s="88"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="89"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6638,25 +6644,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -9197,12 +9203,12 @@
       <c r="B102" s="44"/>
       <c r="C102" s="45"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="85">
+      <c r="E102" s="86">
         <f>E98-G98</f>
         <v>0</v>
       </c>
-      <c r="F102" s="86"/>
-      <c r="G102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="88"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -9218,11 +9224,11 @@
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="88" t="s">
+      <c r="E104" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -9368,25 +9374,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -11707,12 +11713,12 @@
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="85">
+      <c r="E96" s="86">
         <f>E92-G92</f>
         <v>0</v>
       </c>
-      <c r="F96" s="86"/>
-      <c r="G96" s="87"/>
+      <c r="F96" s="87"/>
+      <c r="G96" s="88"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -11728,11 +11734,11 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="88" t="s">
+      <c r="E98" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="88"/>
-      <c r="G98" s="88"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="89"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -11856,8 +11862,8 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44:G44"/>
+      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11876,25 +11882,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -12158,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>45053</v>
       </c>
@@ -12180,7 +12186,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>45054</v>
       </c>
@@ -12206,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>45054</v>
       </c>
@@ -12233,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>45054</v>
       </c>
@@ -12259,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>45054</v>
       </c>
@@ -12285,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>45055</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>45056</v>
       </c>
@@ -12337,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>45056</v>
       </c>
@@ -12390,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>45057</v>
       </c>
@@ -12416,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45057</v>
       </c>
@@ -12469,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>45058</v>
       </c>
@@ -12495,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>45058</v>
       </c>
@@ -12521,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>45058</v>
       </c>
@@ -12536,11 +12542,15 @@
       <c r="E27" s="22">
         <v>6380</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="74">
+        <v>45067</v>
+      </c>
+      <c r="G27" s="75">
+        <v>3620</v>
+      </c>
       <c r="H27" s="20">
         <f t="shared" si="0"/>
-        <v>6380</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -12558,11 +12568,15 @@
       <c r="E28" s="22">
         <v>6380</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="32"/>
+      <c r="F28" s="23">
+        <v>45067</v>
+      </c>
+      <c r="G28" s="32">
+        <v>6380</v>
+      </c>
       <c r="H28" s="20">
         <f t="shared" si="0"/>
-        <v>6380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12591,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="69">
         <v>45058</v>
       </c>
@@ -12606,16 +12620,16 @@
       <c r="E30" s="22">
         <v>7155</v>
       </c>
-      <c r="F30" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="75">
-        <f>2500+4055</f>
-        <v>6555</v>
+      <c r="F30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="32">
+        <f>2500+4055+600</f>
+        <v>7155</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12787,7 +12801,7 @@
         <v>885</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G37" s="32">
         <f>500+385</f>
@@ -12866,7 +12880,7 @@
         <v>1525</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="32">
         <f>1500+25</f>
@@ -12912,14 +12926,14 @@
         <v>1344</v>
       </c>
       <c r="C42" s="71"/>
-      <c r="D42" s="89" t="s">
+      <c r="D42" s="81" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="22">
         <v>3994</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42" s="32">
         <f>3600+394</f>
@@ -12956,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="69">
         <v>45064</v>
       </c>
@@ -12972,15 +12986,15 @@
         <v>1937</v>
       </c>
       <c r="F44" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G44" s="75">
-        <f>1000</f>
-        <v>1000</v>
+        <f>1000+937</f>
+        <v>1937</v>
       </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
-        <v>937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13024,11 +13038,15 @@
       <c r="E46" s="22">
         <v>1779</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="32"/>
+      <c r="F46" s="23">
+        <v>45066</v>
+      </c>
+      <c r="G46" s="32">
+        <v>1779</v>
+      </c>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
-        <v>1779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13046,11 +13064,15 @@
       <c r="E47" s="22">
         <v>4691</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="32"/>
+      <c r="F47" s="23">
+        <v>45066</v>
+      </c>
+      <c r="G47" s="32">
+        <v>4691</v>
+      </c>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
-        <v>4691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13098,78 +13120,121 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
+      <c r="A50" s="69">
+        <v>45066</v>
+      </c>
       <c r="B50" s="70">
         <f t="shared" si="1"/>
         <v>1352</v>
       </c>
       <c r="C50" s="71"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
+      <c r="D50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="22">
+        <v>3207</v>
+      </c>
       <c r="F50" s="23"/>
       <c r="G50" s="32"/>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
+      <c r="A51" s="69">
+        <v>45066</v>
+      </c>
       <c r="B51" s="70">
         <f t="shared" si="1"/>
         <v>1353</v>
       </c>
       <c r="C51" s="71"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="32"/>
+      <c r="D51" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="22">
+        <v>3891</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="32">
+        <f>2132+1759</f>
+        <v>3891</v>
+      </c>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="69">
+        <v>45066</v>
+      </c>
       <c r="B52" s="70">
         <f t="shared" si="1"/>
         <v>1354</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="32"/>
+      <c r="D52" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="22">
+        <v>2504</v>
+      </c>
+      <c r="F52" s="23">
+        <v>45068</v>
+      </c>
+      <c r="G52" s="32">
+        <v>2504</v>
+      </c>
       <c r="H52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
+      <c r="A53" s="69">
+        <v>45066</v>
+      </c>
       <c r="B53" s="70">
         <f t="shared" si="1"/>
         <v>1355</v>
       </c>
       <c r="C53" s="71"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="32"/>
+      <c r="D53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="22">
+        <v>3091</v>
+      </c>
+      <c r="F53" s="23">
+        <v>45067</v>
+      </c>
+      <c r="G53" s="32">
+        <v>3091</v>
+      </c>
       <c r="H53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
+    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="69">
+        <v>45067</v>
+      </c>
       <c r="B54" s="70">
         <f t="shared" si="1"/>
         <v>1356</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
+      <c r="D54" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
       <c r="F54" s="23"/>
       <c r="G54" s="32"/>
       <c r="H54" s="20">
@@ -13178,115 +13243,165 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
+      <c r="A55" s="72">
+        <v>45067</v>
+      </c>
       <c r="B55" s="70">
         <f t="shared" si="1"/>
         <v>1357</v>
       </c>
       <c r="C55" s="71"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="32"/>
+      <c r="D55" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="31">
+        <v>4407</v>
+      </c>
+      <c r="F55" s="23">
+        <v>45068</v>
+      </c>
+      <c r="G55" s="32">
+        <v>4407</v>
+      </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="A56" s="69">
+        <v>45067</v>
+      </c>
       <c r="B56" s="70">
         <f t="shared" si="1"/>
         <v>1358</v>
       </c>
       <c r="C56" s="71"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
+      <c r="D56" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="22">
+        <v>5437.2</v>
+      </c>
       <c r="F56" s="23"/>
       <c r="G56" s="32"/>
       <c r="H56" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5437.2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
+      <c r="A57" s="69">
+        <v>45067</v>
+      </c>
       <c r="B57" s="70">
         <f t="shared" si="1"/>
         <v>1359</v>
       </c>
       <c r="C57" s="71"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="32"/>
+      <c r="D57" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="22">
+        <v>16401</v>
+      </c>
+      <c r="F57" s="23">
+        <v>45068</v>
+      </c>
+      <c r="G57" s="32">
+        <v>16401</v>
+      </c>
       <c r="H57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
+      <c r="A58" s="69">
+        <v>45068</v>
+      </c>
       <c r="B58" s="70">
         <f t="shared" si="1"/>
         <v>1360</v>
       </c>
       <c r="C58" s="71"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
+      <c r="D58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1054</v>
+      </c>
       <c r="F58" s="23"/>
       <c r="G58" s="32"/>
       <c r="H58" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
+      <c r="A59" s="69">
+        <v>45068</v>
+      </c>
       <c r="B59" s="70">
         <f t="shared" si="1"/>
         <v>1361</v>
       </c>
       <c r="C59" s="71"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
+      <c r="D59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="22">
+        <v>3772</v>
+      </c>
       <c r="F59" s="23"/>
       <c r="G59" s="32"/>
       <c r="H59" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
+      <c r="A60" s="69">
+        <v>45068</v>
+      </c>
       <c r="B60" s="70">
         <f t="shared" si="1"/>
         <v>1362</v>
       </c>
       <c r="C60" s="71"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
+      <c r="D60" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="22">
+        <v>1773</v>
+      </c>
       <c r="F60" s="23"/>
       <c r="G60" s="32"/>
       <c r="H60" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
+      <c r="A61" s="69">
+        <v>45068</v>
+      </c>
       <c r="B61" s="70">
         <f t="shared" si="1"/>
         <v>1363</v>
       </c>
       <c r="C61" s="71"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
+      <c r="D61" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="22">
+        <v>390</v>
+      </c>
       <c r="F61" s="23"/>
       <c r="G61" s="32"/>
       <c r="H61" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13763,16 +13878,16 @@
       <c r="D92" s="3"/>
       <c r="E92" s="46">
         <f>SUM(E4:E91)</f>
-        <v>210223</v>
+        <v>256150.2</v>
       </c>
       <c r="F92" s="47"/>
       <c r="G92" s="47">
         <f>SUM(G4:G91)</f>
-        <v>161012</v>
+        <v>209313</v>
       </c>
       <c r="H92" s="48">
         <f>SUM(H4:H91)</f>
-        <v>49211</v>
+        <v>46837.2</v>
       </c>
       <c r="I92" s="3"/>
     </row>
@@ -13814,12 +13929,12 @@
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="85">
+      <c r="E96" s="86">
         <f>E92-G92</f>
-        <v>49211</v>
-      </c>
-      <c r="F96" s="86"/>
-      <c r="G96" s="87"/>
+        <v>46837.200000000012</v>
+      </c>
+      <c r="F96" s="87"/>
+      <c r="G96" s="88"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -13835,11 +13950,11 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="88" t="s">
+      <c r="E98" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="88"/>
-      <c r="G98" s="88"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="89"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="113">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -361,6 +361,15 @@
   <si>
     <t>JOSE LUIS</t>
   </si>
+  <si>
+    <t>23-May-23--25-MAY-23</t>
+  </si>
+  <si>
+    <t>23-may-23--26-May-23</t>
+  </si>
+  <si>
+    <t>21-May-23--28-May-23</t>
+  </si>
 </sst>
 </file>
 
@@ -372,7 +381,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +511,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -728,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,6 +970,7 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1430,13 +1448,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1483,13 +1501,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11859,11 +11877,11 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11952,7 +11970,7 @@
         <v>3887</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H91" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H113" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
@@ -12527,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>45058</v>
       </c>
@@ -12542,15 +12560,16 @@
       <c r="E27" s="22">
         <v>6380</v>
       </c>
-      <c r="F27" s="74">
-        <v>45067</v>
-      </c>
-      <c r="G27" s="75">
-        <v>3620</v>
+      <c r="F27" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="32">
+        <f>3620+2760</f>
+        <v>6380</v>
       </c>
       <c r="H27" s="20">
         <f t="shared" si="0"/>
-        <v>2760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -13090,11 +13109,15 @@
       <c r="E48" s="22">
         <v>13014</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="32"/>
+      <c r="F48" s="23">
+        <v>45074</v>
+      </c>
+      <c r="G48" s="32">
+        <v>13014</v>
+      </c>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
-        <v>13014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13112,11 +13135,15 @@
       <c r="E49" s="22">
         <v>12000</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="32"/>
+      <c r="F49" s="23">
+        <v>45069</v>
+      </c>
+      <c r="G49" s="32">
+        <v>12000</v>
+      </c>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13134,11 +13161,15 @@
       <c r="E50" s="22">
         <v>3207</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="32"/>
+      <c r="F50" s="23">
+        <v>45073</v>
+      </c>
+      <c r="G50" s="32">
+        <v>3207</v>
+      </c>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
-        <v>3207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13283,11 +13314,15 @@
       <c r="E56" s="22">
         <v>5437.2</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="32"/>
+      <c r="F56" s="23">
+        <v>45069</v>
+      </c>
+      <c r="G56" s="32">
+        <v>5437</v>
+      </c>
       <c r="H56" s="20">
         <f t="shared" si="0"/>
-        <v>5437.2</v>
+        <v>0.1999999999998181</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13316,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="69">
         <v>45068</v>
       </c>
@@ -13331,11 +13366,16 @@
       <c r="E58" s="22">
         <v>1054</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="32"/>
+      <c r="F58" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="32">
+        <f>1000+54</f>
+        <v>1054</v>
+      </c>
       <c r="H58" s="20">
         <f t="shared" si="0"/>
-        <v>1054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13353,14 +13393,18 @@
       <c r="E59" s="22">
         <v>3772</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="32"/>
+      <c r="F59" s="23">
+        <v>45069</v>
+      </c>
+      <c r="G59" s="32">
+        <v>3772</v>
+      </c>
       <c r="H59" s="20">
         <f t="shared" si="0"/>
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="69">
         <v>45068</v>
       </c>
@@ -13375,11 +13419,16 @@
       <c r="E60" s="22">
         <v>1773</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="32"/>
+      <c r="F60" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="32">
+        <f>1573+200</f>
+        <v>1773</v>
+      </c>
       <c r="H60" s="20">
         <f t="shared" si="0"/>
-        <v>1773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13397,118 +13446,188 @@
       <c r="E61" s="22">
         <v>390</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="32"/>
+      <c r="F61" s="23">
+        <v>45069</v>
+      </c>
+      <c r="G61" s="32">
+        <v>390</v>
+      </c>
       <c r="H61" s="20">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
+      <c r="A62" s="69">
+        <v>45069</v>
+      </c>
       <c r="B62" s="70">
         <f t="shared" si="1"/>
         <v>1364</v>
       </c>
       <c r="C62" s="71"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="32"/>
+      <c r="D62" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="22">
+        <v>446</v>
+      </c>
+      <c r="F62" s="23">
+        <v>45073</v>
+      </c>
+      <c r="G62" s="32">
+        <v>446</v>
+      </c>
       <c r="H62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
+      <c r="A63" s="69">
+        <v>45069</v>
+      </c>
       <c r="B63" s="70">
         <f t="shared" si="1"/>
         <v>1365</v>
       </c>
       <c r="C63" s="71"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="32"/>
+      <c r="D63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="22">
+        <v>1550</v>
+      </c>
+      <c r="F63" s="23">
+        <v>45071</v>
+      </c>
+      <c r="G63" s="32">
+        <v>1550</v>
+      </c>
       <c r="H63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="A64" s="69">
+        <v>45069</v>
+      </c>
       <c r="B64" s="70">
         <f t="shared" si="1"/>
         <v>1366</v>
       </c>
       <c r="C64" s="71"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="32"/>
+      <c r="D64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="22">
+        <v>3420</v>
+      </c>
+      <c r="F64" s="23">
+        <v>45070</v>
+      </c>
+      <c r="G64" s="32">
+        <v>3420</v>
+      </c>
       <c r="H64" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
+    <row r="65" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73">
+        <v>45069</v>
+      </c>
       <c r="B65" s="70">
         <f t="shared" si="1"/>
         <v>1367</v>
       </c>
       <c r="C65" s="71"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="32"/>
+      <c r="D65" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="22">
+        <v>1486</v>
+      </c>
+      <c r="F65" s="23">
+        <v>45071</v>
+      </c>
+      <c r="G65" s="32">
+        <v>1486</v>
+      </c>
       <c r="H65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
+      <c r="A66" s="73">
+        <v>45070</v>
+      </c>
       <c r="B66" s="70">
         <f t="shared" si="1"/>
         <v>1368</v>
       </c>
       <c r="C66" s="71"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="32"/>
+      <c r="D66" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="22">
+        <v>2174</v>
+      </c>
+      <c r="F66" s="23">
+        <v>45071</v>
+      </c>
+      <c r="G66" s="32">
+        <v>2174</v>
+      </c>
       <c r="H66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
+      <c r="A67" s="73">
+        <v>45070</v>
+      </c>
       <c r="B67" s="70">
         <f t="shared" si="1"/>
         <v>1369</v>
       </c>
       <c r="C67" s="71"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="32"/>
+      <c r="D67" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="22">
+        <v>1356</v>
+      </c>
+      <c r="F67" s="23">
+        <v>45070</v>
+      </c>
+      <c r="G67" s="32">
+        <v>1356</v>
+      </c>
       <c r="H67" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
+    <row r="68" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="73">
+        <v>45070</v>
+      </c>
       <c r="B68" s="70">
         <f t="shared" si="1"/>
         <v>1370</v>
       </c>
       <c r="C68" s="71"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="22">
+        <v>0</v>
+      </c>
       <c r="F68" s="23"/>
       <c r="G68" s="32"/>
       <c r="H68" s="20">
@@ -13516,15 +13635,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
+    <row r="69" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="73">
+        <v>45070</v>
+      </c>
       <c r="B69" s="70">
         <f t="shared" si="1"/>
         <v>1371</v>
       </c>
       <c r="C69" s="71"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="22"/>
+      <c r="D69" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="22">
+        <v>0</v>
+      </c>
       <c r="F69" s="23"/>
       <c r="G69" s="32"/>
       <c r="H69" s="20">
@@ -13532,15 +13657,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
+    <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="73">
+        <v>45070</v>
+      </c>
       <c r="B70" s="70">
-        <f t="shared" ref="B70:B87" si="2">B69+1</f>
+        <f t="shared" ref="B70:B111" si="2">B69+1</f>
         <v>1372</v>
       </c>
       <c r="C70" s="71"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="22"/>
+      <c r="D70" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="22">
+        <v>0</v>
+      </c>
       <c r="F70" s="23"/>
       <c r="G70" s="32"/>
       <c r="H70" s="20">
@@ -13548,15 +13679,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
+    <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="73">
+        <v>45070</v>
+      </c>
       <c r="B71" s="70">
         <f t="shared" si="2"/>
         <v>1373</v>
       </c>
       <c r="C71" s="71"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="22"/>
+      <c r="D71" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="22">
+        <v>0</v>
+      </c>
       <c r="F71" s="23"/>
       <c r="G71" s="32"/>
       <c r="H71" s="20">
@@ -13564,15 +13701,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
+    <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="73">
+        <v>45070</v>
+      </c>
       <c r="B72" s="70">
         <f t="shared" si="2"/>
         <v>1374</v>
       </c>
       <c r="C72" s="71"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="22"/>
+      <c r="D72" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="22">
+        <v>0</v>
+      </c>
       <c r="F72" s="23"/>
       <c r="G72" s="32"/>
       <c r="H72" s="20">
@@ -13580,15 +13723,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
+    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="73">
+        <v>45070</v>
+      </c>
       <c r="B73" s="70">
         <f t="shared" si="2"/>
         <v>1375</v>
       </c>
       <c r="C73" s="71"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="22"/>
+      <c r="D73" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="22">
+        <v>0</v>
+      </c>
       <c r="F73" s="23"/>
       <c r="G73" s="32"/>
       <c r="H73" s="20">
@@ -13596,15 +13745,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73"/>
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="73">
+        <v>45070</v>
+      </c>
       <c r="B74" s="70">
         <f t="shared" si="2"/>
         <v>1376</v>
       </c>
       <c r="C74" s="71"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="22"/>
+      <c r="D74" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="22">
+        <v>0</v>
+      </c>
       <c r="F74" s="23"/>
       <c r="G74" s="32"/>
       <c r="H74" s="20">
@@ -13613,456 +13768,1026 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
+      <c r="A75" s="73">
+        <v>45071</v>
+      </c>
       <c r="B75" s="70">
         <f t="shared" si="2"/>
         <v>1377</v>
       </c>
       <c r="C75" s="71"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="32"/>
+      <c r="D75" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="22">
+        <v>1740</v>
+      </c>
+      <c r="F75" s="23">
+        <v>45072</v>
+      </c>
+      <c r="G75" s="32">
+        <v>1740</v>
+      </c>
       <c r="H75" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
+      <c r="A76" s="73">
+        <v>45071</v>
+      </c>
       <c r="B76" s="70">
         <f t="shared" si="2"/>
         <v>1378</v>
       </c>
       <c r="C76" s="71"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="32"/>
+      <c r="D76" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="22">
+        <v>870</v>
+      </c>
+      <c r="F76" s="23">
+        <v>45072</v>
+      </c>
+      <c r="G76" s="32">
+        <v>870</v>
+      </c>
       <c r="H76" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
+      <c r="A77" s="73">
+        <v>45071</v>
+      </c>
       <c r="B77" s="70">
         <f t="shared" si="2"/>
         <v>1379</v>
       </c>
       <c r="C77" s="71"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="32"/>
+      <c r="D77" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="22">
+        <v>545</v>
+      </c>
+      <c r="F77" s="23">
+        <v>45072</v>
+      </c>
+      <c r="G77" s="32">
+        <v>545</v>
+      </c>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
+      <c r="A78" s="73">
+        <v>45071</v>
+      </c>
       <c r="B78" s="70">
         <f t="shared" si="2"/>
         <v>1380</v>
       </c>
       <c r="C78" s="71"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="32"/>
+      <c r="D78" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="22">
+        <v>4128</v>
+      </c>
+      <c r="F78" s="23">
+        <v>45072</v>
+      </c>
+      <c r="G78" s="32">
+        <v>4128</v>
+      </c>
       <c r="H78" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
+      <c r="A79" s="73">
+        <v>45072</v>
+      </c>
       <c r="B79" s="70">
         <f t="shared" si="2"/>
         <v>1381</v>
       </c>
       <c r="C79" s="71"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="32"/>
+      <c r="D79" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="22">
+        <v>1332</v>
+      </c>
+      <c r="F79" s="23">
+        <v>45073</v>
+      </c>
+      <c r="G79" s="32">
+        <v>1332</v>
+      </c>
       <c r="H79" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
+      <c r="A80" s="73">
+        <v>45072</v>
+      </c>
       <c r="B80" s="70">
         <f t="shared" si="2"/>
         <v>1382</v>
       </c>
       <c r="C80" s="71"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="32"/>
+      <c r="D80" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="22">
+        <v>3784</v>
+      </c>
+      <c r="F80" s="23">
+        <v>45073</v>
+      </c>
+      <c r="G80" s="32">
+        <v>3784</v>
+      </c>
       <c r="H80" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="73">
+        <v>45072</v>
+      </c>
       <c r="B81" s="70">
         <f t="shared" si="2"/>
         <v>1383</v>
       </c>
       <c r="C81" s="71"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="22"/>
+      <c r="D81" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="22">
+        <v>12160</v>
+      </c>
       <c r="F81" s="23"/>
       <c r="G81" s="32"/>
       <c r="H81" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="73"/>
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73">
+        <v>45072</v>
+      </c>
       <c r="B82" s="70">
         <f t="shared" si="2"/>
         <v>1384</v>
       </c>
       <c r="C82" s="71"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="32"/>
+      <c r="D82" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="22">
+        <v>9520</v>
+      </c>
+      <c r="F82" s="23">
+        <v>45075</v>
+      </c>
+      <c r="G82" s="32">
+        <v>9520</v>
+      </c>
       <c r="H82" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="73"/>
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73">
+        <v>45073</v>
+      </c>
       <c r="B83" s="70">
         <f t="shared" si="2"/>
         <v>1385</v>
       </c>
       <c r="C83" s="71"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="22"/>
+      <c r="D83" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="22">
+        <v>435</v>
+      </c>
       <c r="F83" s="23"/>
       <c r="G83" s="32"/>
       <c r="H83" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="73"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73">
+        <v>45073</v>
+      </c>
       <c r="B84" s="70">
         <f t="shared" si="2"/>
         <v>1386</v>
       </c>
       <c r="C84" s="71"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="32"/>
+      <c r="D84" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="22">
+        <v>3096</v>
+      </c>
+      <c r="F84" s="23">
+        <v>45074</v>
+      </c>
+      <c r="G84" s="32">
+        <v>3096</v>
+      </c>
       <c r="H84" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73">
+        <v>45073</v>
+      </c>
       <c r="B85" s="70">
         <f t="shared" si="2"/>
         <v>1387</v>
       </c>
       <c r="C85" s="71"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="32"/>
+      <c r="D85" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="22">
+        <v>4494</v>
+      </c>
+      <c r="F85" s="23">
+        <v>45074</v>
+      </c>
+      <c r="G85" s="32">
+        <v>4494</v>
+      </c>
       <c r="H85" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73">
+        <v>45074</v>
+      </c>
       <c r="B86" s="70">
         <f t="shared" si="2"/>
         <v>1388</v>
       </c>
       <c r="C86" s="71"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="32"/>
+      <c r="D86" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="22">
+        <v>9296</v>
+      </c>
+      <c r="F86" s="23">
+        <v>45074</v>
+      </c>
+      <c r="G86" s="32">
+        <v>9296</v>
+      </c>
       <c r="H86" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73">
+        <v>45074</v>
+      </c>
       <c r="B87" s="70">
         <f t="shared" si="2"/>
         <v>1389</v>
       </c>
       <c r="C87" s="71"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="32"/>
+      <c r="D87" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="22">
+        <v>252</v>
+      </c>
+      <c r="F87" s="23">
+        <v>45075</v>
+      </c>
+      <c r="G87" s="32">
+        <v>252</v>
+      </c>
       <c r="H87" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
-      <c r="B88" s="70"/>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73">
+        <v>45074</v>
+      </c>
+      <c r="B88" s="70">
+        <f t="shared" si="2"/>
+        <v>1390</v>
+      </c>
       <c r="C88" s="71"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="32"/>
+      <c r="D88" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="22">
+        <v>4715</v>
+      </c>
+      <c r="F88" s="23">
+        <v>45075</v>
+      </c>
+      <c r="G88" s="32">
+        <v>4715</v>
+      </c>
       <c r="H88" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
-      <c r="B89" s="70"/>
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="73">
+        <v>45075</v>
+      </c>
+      <c r="B89" s="70">
+        <f t="shared" si="2"/>
+        <v>1391</v>
+      </c>
       <c r="C89" s="71"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="32"/>
+      <c r="D89" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="22">
+        <v>8640</v>
+      </c>
+      <c r="F89" s="23">
+        <v>45076</v>
+      </c>
+      <c r="G89" s="32">
+        <v>8640</v>
+      </c>
       <c r="H89" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="73"/>
-      <c r="B90" s="70"/>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="73">
+        <v>45075</v>
+      </c>
+      <c r="B90" s="70">
+        <f t="shared" si="2"/>
+        <v>1392</v>
+      </c>
       <c r="C90" s="71"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="32"/>
+      <c r="D90" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="22">
+        <v>1157</v>
+      </c>
+      <c r="F90" s="23">
+        <v>45076</v>
+      </c>
+      <c r="G90" s="32">
+        <v>1157</v>
+      </c>
       <c r="H90" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="32"/>
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="73">
+        <v>45075</v>
+      </c>
+      <c r="B91" s="70">
+        <f t="shared" si="2"/>
+        <v>1393</v>
+      </c>
+      <c r="C91" s="71"/>
+      <c r="D91" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="22">
+        <v>3600</v>
+      </c>
+      <c r="F91" s="23">
+        <v>45076</v>
+      </c>
+      <c r="G91" s="32">
+        <v>3600</v>
+      </c>
       <c r="H91" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="46">
-        <f>SUM(E4:E91)</f>
-        <v>256150.2</v>
-      </c>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47">
-        <f>SUM(G4:G91)</f>
-        <v>209313</v>
-      </c>
-      <c r="H92" s="48">
-        <f>SUM(H4:H91)</f>
-        <v>46837.2</v>
-      </c>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="44"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="52" t="s">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="73">
+        <v>45075</v>
+      </c>
+      <c r="B92" s="70">
+        <f t="shared" si="2"/>
+        <v>1394</v>
+      </c>
+      <c r="C92" s="71"/>
+      <c r="D92" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="22">
+        <v>1254</v>
+      </c>
+      <c r="F92" s="23">
+        <v>45076</v>
+      </c>
+      <c r="G92" s="32">
+        <v>1254</v>
+      </c>
+      <c r="H92" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="73">
+        <v>45076</v>
+      </c>
+      <c r="B93" s="70">
+        <f t="shared" si="2"/>
+        <v>1395</v>
+      </c>
+      <c r="C93" s="71"/>
+      <c r="D93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="22">
+        <v>292</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="20">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="73">
+        <v>45076</v>
+      </c>
+      <c r="B94" s="70">
+        <f t="shared" si="2"/>
+        <v>1396</v>
+      </c>
+      <c r="C94" s="71"/>
+      <c r="D94" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="22">
+        <v>4135</v>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="20">
+        <f t="shared" si="0"/>
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="73">
+        <v>45076</v>
+      </c>
+      <c r="B95" s="70">
+        <f t="shared" si="2"/>
+        <v>1397</v>
+      </c>
+      <c r="C95" s="71"/>
+      <c r="D95" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="22">
+        <v>1680</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="20">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="73">
+        <v>45076</v>
+      </c>
+      <c r="B96" s="70">
+        <f t="shared" si="2"/>
+        <v>1398</v>
+      </c>
+      <c r="C96" s="71"/>
+      <c r="D96" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="22">
+        <v>2624</v>
+      </c>
+      <c r="F96" s="23">
+        <v>45077</v>
+      </c>
+      <c r="G96" s="32">
+        <v>2624</v>
+      </c>
+      <c r="H96" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="73">
+        <v>45077</v>
+      </c>
+      <c r="B97" s="70">
+        <f t="shared" si="2"/>
+        <v>1399</v>
+      </c>
+      <c r="C97" s="71"/>
+      <c r="D97" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="22">
+        <v>7976</v>
+      </c>
+      <c r="F97" s="23"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="20">
+        <f t="shared" si="0"/>
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73">
+        <v>45077</v>
+      </c>
+      <c r="B98" s="70">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="C98" s="71"/>
+      <c r="D98" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="22">
+        <v>2772</v>
+      </c>
+      <c r="F98" s="23"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="20">
+        <f t="shared" si="0"/>
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="73"/>
+      <c r="B99" s="70">
+        <f t="shared" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="C99" s="71"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="B100" s="70">
+        <f t="shared" si="2"/>
+        <v>1402</v>
+      </c>
+      <c r="C100" s="71"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="73"/>
+      <c r="B101" s="70">
+        <f t="shared" si="2"/>
+        <v>1403</v>
+      </c>
+      <c r="C101" s="71"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="73"/>
+      <c r="B102" s="70">
+        <f t="shared" si="2"/>
+        <v>1404</v>
+      </c>
+      <c r="C102" s="71"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="73"/>
+      <c r="B103" s="70">
+        <f t="shared" si="2"/>
+        <v>1405</v>
+      </c>
+      <c r="C103" s="71"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="73"/>
+      <c r="B104" s="70">
+        <f t="shared" si="2"/>
+        <v>1406</v>
+      </c>
+      <c r="C104" s="71"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="73"/>
+      <c r="B105" s="70">
+        <f t="shared" si="2"/>
+        <v>1407</v>
+      </c>
+      <c r="C105" s="71"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="73"/>
+      <c r="B106" s="70">
+        <f t="shared" si="2"/>
+        <v>1408</v>
+      </c>
+      <c r="C106" s="71"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="73"/>
+      <c r="B107" s="70">
+        <f t="shared" si="2"/>
+        <v>1409</v>
+      </c>
+      <c r="C107" s="71"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="73"/>
+      <c r="B108" s="70">
+        <f t="shared" si="2"/>
+        <v>1410</v>
+      </c>
+      <c r="C108" s="71"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="73"/>
+      <c r="B109" s="70">
+        <f t="shared" si="2"/>
+        <v>1411</v>
+      </c>
+      <c r="C109" s="71"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="73"/>
+      <c r="B110" s="70">
+        <f t="shared" si="2"/>
+        <v>1412</v>
+      </c>
+      <c r="C110" s="71"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="73"/>
+      <c r="B111" s="70">
+        <f t="shared" si="2"/>
+        <v>1413</v>
+      </c>
+      <c r="C111" s="71"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="73"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="71"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="46">
+        <f>SUM(E4:E113)</f>
+        <v>357079.2</v>
+      </c>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47">
+        <f>SUM(G4:G113)</f>
+        <v>324199</v>
+      </c>
+      <c r="H114" s="48">
+        <f>SUM(H4:H113)</f>
+        <v>32880.199999999997</v>
+      </c>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="53" t="s">
+      <c r="F116" s="50"/>
+      <c r="G116" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="51"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="44"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="44"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="86">
-        <f>E92-G92</f>
-        <v>46837.200000000012</v>
-      </c>
-      <c r="F96" s="87"/>
-      <c r="G96" s="88"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="44"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="64"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="44"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="89" t="s">
+      <c r="H116" s="51"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="44"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B118" s="44"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="86">
+        <f>E114-G114</f>
+        <v>32880.200000000012</v>
+      </c>
+      <c r="F118" s="87"/>
+      <c r="G118" s="88"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="44"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="64"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B120" s="44"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="89"/>
-      <c r="G98" s="89"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="44"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="64"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="65"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="44"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="64"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="44"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="64"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="44"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="64"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="44"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="64"/>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="44"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="64"/>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="44"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="64"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="44"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="64"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="44"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="64"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="44"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="64"/>
-      <c r="I109" s="3"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="89"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="44"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="64"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="65"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="44"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="64"/>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="64"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="44"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="64"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="44"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="64"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="44"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="64"/>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="44"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="64"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="44"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="64"/>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="44"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="64"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="44"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="64"/>
+      <c r="I131" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="E120:G120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS  HERRADURA  MAYO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="118">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -369,6 +369,21 @@
   </si>
   <si>
     <t>21-May-23--28-May-23</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>CREMERIA</t>
+  </si>
+  <si>
+    <t>1-Jun-23--2-Jun-23</t>
+  </si>
+  <si>
+    <t>2-Jun-23--3-Jun-23</t>
+  </si>
+  <si>
+    <t>3-Jun-23--4-Jun-23</t>
   </si>
 </sst>
 </file>
@@ -946,6 +961,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,7 +986,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1448,13 +1463,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1501,13 +1516,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1842,25 +1857,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="B2" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3883,12 +3898,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="86">
+      <c r="E84" s="87">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="87"/>
-      <c r="G84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="89"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,11 +3919,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="89" t="s">
+      <c r="E86" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="89"/>
-      <c r="G86" s="89"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4051,25 +4066,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="B2" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6491,12 +6506,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="86">
+      <c r="E98" s="87">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="87"/>
-      <c r="G98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="89"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6512,11 +6527,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="89" t="s">
+      <c r="E100" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6662,25 +6677,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="B2" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -9221,12 +9236,12 @@
       <c r="B102" s="44"/>
       <c r="C102" s="45"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="86">
+      <c r="E102" s="87">
         <f>E98-G98</f>
         <v>0</v>
       </c>
-      <c r="F102" s="87"/>
-      <c r="G102" s="88"/>
+      <c r="F102" s="88"/>
+      <c r="G102" s="89"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -9242,11 +9257,11 @@
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="89" t="s">
+      <c r="E104" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="89"/>
-      <c r="G104" s="89"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -9392,25 +9407,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="B2" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -11731,12 +11746,12 @@
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="86">
+      <c r="E96" s="87">
         <f>E92-G92</f>
         <v>0</v>
       </c>
-      <c r="F96" s="87"/>
-      <c r="G96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="89"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -11752,11 +11767,11 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="89" t="s">
+      <c r="E98" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="89"/>
-      <c r="G98" s="89"/>
+      <c r="F98" s="90"/>
+      <c r="G98" s="90"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -11877,11 +11892,11 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11900,25 +11915,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="B2" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -11970,7 +11985,7 @@
         <v>3887</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H113" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H123" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
@@ -12052,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>45051</v>
       </c>
@@ -12078,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>45052</v>
       </c>
@@ -12104,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>45052</v>
       </c>
@@ -12130,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>45052</v>
       </c>
@@ -12156,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45053</v>
       </c>
@@ -12197,11 +12212,15 @@
       <c r="E13" s="22">
         <v>3430</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="23">
+        <v>45081</v>
+      </c>
+      <c r="G13" s="32">
+        <v>3430</v>
+      </c>
       <c r="H13" s="20">
         <f t="shared" si="0"/>
-        <v>3430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12230,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>45054</v>
       </c>
@@ -13312,7 +13331,7 @@
         <v>93</v>
       </c>
       <c r="E56" s="22">
-        <v>5437.2</v>
+        <v>5437</v>
       </c>
       <c r="F56" s="23">
         <v>45069</v>
@@ -13322,7 +13341,7 @@
       </c>
       <c r="H56" s="20">
         <f t="shared" si="0"/>
-        <v>0.1999999999998181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13622,7 +13641,7 @@
         <v>1370</v>
       </c>
       <c r="C68" s="71"/>
-      <c r="D68" s="90" t="s">
+      <c r="D68" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="22">
@@ -13644,7 +13663,7 @@
         <v>1371</v>
       </c>
       <c r="C69" s="71"/>
-      <c r="D69" s="90" t="s">
+      <c r="D69" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="22">
@@ -13662,11 +13681,11 @@
         <v>45070</v>
       </c>
       <c r="B70" s="70">
-        <f t="shared" ref="B70:B111" si="2">B69+1</f>
+        <f t="shared" ref="B70:B122" si="2">B69+1</f>
         <v>1372</v>
       </c>
       <c r="C70" s="71"/>
-      <c r="D70" s="90" t="s">
+      <c r="D70" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="22">
@@ -13688,7 +13707,7 @@
         <v>1373</v>
       </c>
       <c r="C71" s="71"/>
-      <c r="D71" s="90" t="s">
+      <c r="D71" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="22">
@@ -13710,7 +13729,7 @@
         <v>1374</v>
       </c>
       <c r="C72" s="71"/>
-      <c r="D72" s="90" t="s">
+      <c r="D72" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="22">
@@ -13732,7 +13751,7 @@
         <v>1375</v>
       </c>
       <c r="C73" s="71"/>
-      <c r="D73" s="90" t="s">
+      <c r="D73" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="22">
@@ -13754,7 +13773,7 @@
         <v>1376</v>
       </c>
       <c r="C74" s="71"/>
-      <c r="D74" s="90" t="s">
+      <c r="D74" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="22">
@@ -13938,11 +13957,15 @@
       <c r="E81" s="22">
         <v>12160</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="32"/>
+      <c r="F81" s="23">
+        <v>45081</v>
+      </c>
+      <c r="G81" s="32">
+        <v>12160</v>
+      </c>
       <c r="H81" s="20">
         <f t="shared" si="0"/>
-        <v>12160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13986,11 +14009,15 @@
       <c r="E83" s="22">
         <v>435</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="32"/>
+      <c r="F83" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G83" s="32">
+        <v>435</v>
+      </c>
       <c r="H83" s="20">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14242,11 +14269,15 @@
       <c r="E93" s="22">
         <v>292</v>
       </c>
-      <c r="F93" s="23"/>
-      <c r="G93" s="32"/>
+      <c r="F93" s="23">
+        <v>45078</v>
+      </c>
+      <c r="G93" s="32">
+        <v>292</v>
+      </c>
       <c r="H93" s="20">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14264,14 +14295,18 @@
       <c r="E94" s="22">
         <v>4135</v>
       </c>
-      <c r="F94" s="23"/>
-      <c r="G94" s="32"/>
+      <c r="F94" s="23">
+        <v>45078</v>
+      </c>
+      <c r="G94" s="32">
+        <v>4135</v>
+      </c>
       <c r="H94" s="20">
         <f t="shared" si="0"/>
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
         <v>45076</v>
       </c>
@@ -14286,11 +14321,16 @@
       <c r="E95" s="22">
         <v>1680</v>
       </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="32"/>
+      <c r="F95" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G95" s="32">
+        <f>1300+380</f>
+        <v>1680</v>
+      </c>
       <c r="H95" s="20">
         <f t="shared" si="0"/>
-        <v>1680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14334,11 +14374,15 @@
       <c r="E97" s="22">
         <v>7976</v>
       </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="32"/>
+      <c r="F97" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G97" s="32">
+        <v>7976</v>
+      </c>
       <c r="H97" s="20">
         <f t="shared" si="0"/>
-        <v>7976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14356,367 +14400,620 @@
       <c r="E98" s="22">
         <v>2772</v>
       </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="32"/>
+      <c r="F98" s="23">
+        <v>45078</v>
+      </c>
+      <c r="G98" s="32">
+        <v>2772</v>
+      </c>
       <c r="H98" s="20">
         <f t="shared" si="0"/>
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="73">
+        <v>45078</v>
+      </c>
       <c r="B99" s="70">
         <f t="shared" si="2"/>
         <v>1401</v>
       </c>
       <c r="C99" s="71"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="32"/>
+      <c r="D99" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="22">
+        <v>1552</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="32">
+        <f>520+1032</f>
+        <v>1552</v>
+      </c>
       <c r="H99" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="73"/>
+      <c r="A100" s="73">
+        <v>45078</v>
+      </c>
       <c r="B100" s="70">
         <f t="shared" si="2"/>
         <v>1402</v>
       </c>
       <c r="C100" s="71"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="32"/>
+      <c r="D100" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="22">
+        <v>1403</v>
+      </c>
+      <c r="F100" s="23">
+        <v>45079</v>
+      </c>
+      <c r="G100" s="32">
+        <v>1403</v>
+      </c>
       <c r="H100" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
+      <c r="A101" s="73">
+        <v>45078</v>
+      </c>
       <c r="B101" s="70">
         <f t="shared" si="2"/>
         <v>1403</v>
       </c>
       <c r="C101" s="71"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="32"/>
+      <c r="D101" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="22">
+        <v>300</v>
+      </c>
+      <c r="F101" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G101" s="32">
+        <v>300</v>
+      </c>
       <c r="H101" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73"/>
+      <c r="A102" s="73">
+        <v>45078</v>
+      </c>
       <c r="B102" s="70">
         <f t="shared" si="2"/>
         <v>1404</v>
       </c>
       <c r="C102" s="71"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="32"/>
+      <c r="D102" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="22">
+        <v>2584</v>
+      </c>
+      <c r="F102" s="23">
+        <v>45079</v>
+      </c>
+      <c r="G102" s="32">
+        <v>2584</v>
+      </c>
       <c r="H102" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="73"/>
+      <c r="A103" s="73">
+        <v>45078</v>
+      </c>
       <c r="B103" s="70">
         <f t="shared" si="2"/>
         <v>1405</v>
       </c>
       <c r="C103" s="71"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="32"/>
+      <c r="D103" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" s="22">
+        <v>426</v>
+      </c>
+      <c r="F103" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G103" s="32">
+        <v>426</v>
+      </c>
       <c r="H103" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="73"/>
+      <c r="A104" s="73">
+        <v>45078</v>
+      </c>
       <c r="B104" s="70">
         <f t="shared" si="2"/>
         <v>1406</v>
       </c>
       <c r="C104" s="71"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="32"/>
+      <c r="D104" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E104" s="22">
+        <v>7843</v>
+      </c>
+      <c r="F104" s="23">
+        <v>45079</v>
+      </c>
+      <c r="G104" s="32">
+        <v>7843</v>
+      </c>
       <c r="H104" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="73"/>
+      <c r="A105" s="73">
+        <v>45079</v>
+      </c>
       <c r="B105" s="70">
         <f t="shared" si="2"/>
         <v>1407</v>
       </c>
       <c r="C105" s="71"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="22"/>
+      <c r="D105" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="22">
+        <v>3303</v>
+      </c>
       <c r="F105" s="23"/>
       <c r="G105" s="32"/>
       <c r="H105" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="73">
+        <v>45079</v>
+      </c>
       <c r="B106" s="70">
         <f t="shared" si="2"/>
         <v>1408</v>
       </c>
       <c r="C106" s="71"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="32"/>
+      <c r="D106" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="22">
+        <v>12036</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G106" s="32">
+        <f>11000+1036</f>
+        <v>12036</v>
+      </c>
       <c r="H106" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
+      <c r="A107" s="73">
+        <v>45079</v>
+      </c>
       <c r="B107" s="70">
         <f t="shared" si="2"/>
         <v>1409</v>
       </c>
       <c r="C107" s="71"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="32"/>
+      <c r="D107" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="22">
+        <v>4102</v>
+      </c>
+      <c r="F107" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G107" s="32">
+        <v>4102</v>
+      </c>
       <c r="H107" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="73"/>
+      <c r="A108" s="73">
+        <v>45079</v>
+      </c>
       <c r="B108" s="70">
         <f t="shared" si="2"/>
         <v>1410</v>
       </c>
       <c r="C108" s="71"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="32"/>
+      <c r="D108" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="22">
+        <v>1375</v>
+      </c>
+      <c r="F108" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G108" s="32">
+        <v>1375</v>
+      </c>
       <c r="H108" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
+      <c r="A109" s="73">
+        <v>45079</v>
+      </c>
       <c r="B109" s="70">
         <f t="shared" si="2"/>
         <v>1411</v>
       </c>
       <c r="C109" s="71"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="32"/>
+      <c r="D109" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="22">
+        <v>4416</v>
+      </c>
+      <c r="F109" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G109" s="32">
+        <v>4416</v>
+      </c>
       <c r="H109" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
+      <c r="A110" s="73">
+        <v>45079</v>
+      </c>
       <c r="B110" s="70">
         <f t="shared" si="2"/>
         <v>1412</v>
       </c>
       <c r="C110" s="71"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="32"/>
+      <c r="D110" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="22">
+        <v>4616</v>
+      </c>
+      <c r="F110" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G110" s="32">
+        <v>4616</v>
+      </c>
       <c r="H110" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="73"/>
+    <row r="111" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="73">
+        <v>45079</v>
+      </c>
       <c r="B111" s="70">
         <f t="shared" si="2"/>
         <v>1413</v>
       </c>
       <c r="C111" s="71"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="22"/>
+      <c r="D111" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="22">
+        <v>10600</v>
+      </c>
       <c r="F111" s="23"/>
       <c r="G111" s="32"/>
       <c r="H111" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
-      <c r="B112" s="70"/>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="73">
+        <v>45079</v>
+      </c>
+      <c r="B112" s="70">
+        <f t="shared" si="2"/>
+        <v>1414</v>
+      </c>
       <c r="C112" s="71"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="22"/>
+      <c r="D112" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="22">
+        <v>9720</v>
+      </c>
       <c r="F112" s="23"/>
       <c r="G112" s="32"/>
       <c r="H112" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="32"/>
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="73">
+        <v>45079</v>
+      </c>
+      <c r="B113" s="70">
+        <f t="shared" si="2"/>
+        <v>1415</v>
+      </c>
+      <c r="C113" s="71"/>
+      <c r="D113" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="22">
+        <v>368</v>
+      </c>
+      <c r="F113" s="23">
+        <v>45080</v>
+      </c>
+      <c r="G113" s="32">
+        <v>368</v>
+      </c>
       <c r="H113" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="44"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="46">
-        <f>SUM(E4:E113)</f>
-        <v>357079.2</v>
-      </c>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47">
-        <f>SUM(G4:G113)</f>
-        <v>324199</v>
-      </c>
-      <c r="H114" s="48">
-        <f>SUM(H4:H113)</f>
-        <v>32880.199999999997</v>
-      </c>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="44"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B116" s="44"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="50"/>
-      <c r="G116" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="51"/>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="44"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="44"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="86">
-        <f>E114-G114</f>
-        <v>32880.200000000012</v>
-      </c>
-      <c r="F118" s="87"/>
-      <c r="G118" s="88"/>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="44"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="64"/>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B120" s="44"/>
-      <c r="C120" s="45"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="89"/>
-      <c r="G120" s="89"/>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="44"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="64"/>
-      <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="24"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="65"/>
-      <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="44"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="64"/>
-      <c r="I123" s="3"/>
+    <row r="114" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="73">
+        <v>45080</v>
+      </c>
+      <c r="B114" s="70">
+        <f t="shared" si="2"/>
+        <v>1416</v>
+      </c>
+      <c r="C114" s="71"/>
+      <c r="D114" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="22">
+        <v>2636</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G114" s="32">
+        <f>2436+200</f>
+        <v>2636</v>
+      </c>
+      <c r="H114" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="73">
+        <v>45080</v>
+      </c>
+      <c r="B115" s="70">
+        <f t="shared" si="2"/>
+        <v>1417</v>
+      </c>
+      <c r="C115" s="71"/>
+      <c r="D115" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="22">
+        <v>1895</v>
+      </c>
+      <c r="F115" s="23">
+        <v>45081</v>
+      </c>
+      <c r="G115" s="32">
+        <v>1895</v>
+      </c>
+      <c r="H115" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="73">
+        <v>45080</v>
+      </c>
+      <c r="B116" s="70">
+        <f t="shared" si="2"/>
+        <v>1418</v>
+      </c>
+      <c r="C116" s="71"/>
+      <c r="D116" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="22">
+        <v>2936</v>
+      </c>
+      <c r="F116" s="23">
+        <v>45081</v>
+      </c>
+      <c r="G116" s="32">
+        <v>2936</v>
+      </c>
+      <c r="H116" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="73">
+        <v>45081</v>
+      </c>
+      <c r="B117" s="70">
+        <f t="shared" si="2"/>
+        <v>1419</v>
+      </c>
+      <c r="C117" s="71"/>
+      <c r="D117" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="22">
+        <v>711</v>
+      </c>
+      <c r="F117" s="23"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="20">
+        <f t="shared" si="0"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="73">
+        <v>45081</v>
+      </c>
+      <c r="B118" s="70">
+        <f t="shared" si="2"/>
+        <v>1420</v>
+      </c>
+      <c r="C118" s="71"/>
+      <c r="D118" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="22">
+        <v>10624</v>
+      </c>
+      <c r="F118" s="23"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="20">
+        <f t="shared" si="0"/>
+        <v>10624</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="73">
+        <v>45081</v>
+      </c>
+      <c r="B119" s="70">
+        <f t="shared" si="2"/>
+        <v>1421</v>
+      </c>
+      <c r="C119" s="71"/>
+      <c r="D119" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="22">
+        <v>2816</v>
+      </c>
+      <c r="F119" s="23"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="20">
+        <f t="shared" si="0"/>
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="73">
+        <v>45081</v>
+      </c>
+      <c r="B120" s="70">
+        <f t="shared" si="2"/>
+        <v>1422</v>
+      </c>
+      <c r="C120" s="71"/>
+      <c r="D120" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="22">
+        <v>3650</v>
+      </c>
+      <c r="F120" s="23"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="20">
+        <f t="shared" si="0"/>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="73"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="73"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="44"/>
       <c r="C124" s="45"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="64"/>
+      <c r="E124" s="46">
+        <f>SUM(E4:E123)</f>
+        <v>446991</v>
+      </c>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47">
+        <f>SUM(G4:G123)</f>
+        <v>405567</v>
+      </c>
+      <c r="H124" s="48">
+        <f>SUM(H4:H123)</f>
+        <v>41424</v>
+      </c>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -14726,36 +15023,46 @@
       <c r="E125" s="49"/>
       <c r="F125" s="50"/>
       <c r="G125" s="64"/>
+      <c r="H125" s="51"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B126" s="44"/>
       <c r="C126" s="45"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="49"/>
+      <c r="E126" s="52" t="s">
+        <v>8</v>
+      </c>
       <c r="F126" s="50"/>
-      <c r="G126" s="64"/>
+      <c r="G126" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="51"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="44"/>
       <c r="C127" s="45"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="49"/>
+      <c r="E127" s="52"/>
       <c r="F127" s="50"/>
-      <c r="G127" s="64"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="51"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B128" s="44"/>
       <c r="C128" s="45"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="49"/>
-      <c r="F128" s="50"/>
-      <c r="G128" s="64"/>
+      <c r="E128" s="87">
+        <f>E124-G124</f>
+        <v>41424</v>
+      </c>
+      <c r="F128" s="88"/>
+      <c r="G128" s="89"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="44"/>
       <c r="C129" s="45"/>
       <c r="D129" s="3"/>
@@ -14764,16 +15071,18 @@
       <c r="G129" s="64"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B130" s="44"/>
       <c r="C130" s="45"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="64"/>
+      <c r="E130" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="90"/>
+      <c r="G130" s="90"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="44"/>
       <c r="C131" s="45"/>
       <c r="D131" s="3"/>
@@ -14782,12 +15091,103 @@
       <c r="G131" s="64"/>
       <c r="I131" s="3"/>
     </row>
+    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="65"/>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="44"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="64"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="44"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="64"/>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="44"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="64"/>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="44"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="64"/>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="44"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="64"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="44"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="64"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="44"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="64"/>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="44"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="64"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="44"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="64"/>
+      <c r="I141" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E130:G130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
